--- a/training/output/Resnet34_ViT/W/W2_W0.xlsx
+++ b/training/output/Resnet34_ViT/W/W2_W0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3468094405594406</v>
+        <v>0.4754166666666666</v>
       </c>
       <c r="B2" t="n">
-        <v>3.273042743856257</v>
+        <v>2.694769740104675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6700174825174825</v>
+        <v>0.795625</v>
       </c>
       <c r="B3" t="n">
-        <v>2.401912342418324</v>
+        <v>1.963388442993164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7508741258741259</v>
+        <v>0.8485416666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>2.096410328691656</v>
+        <v>1.656827062368393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.891875</v>
       </c>
       <c r="B5" t="n">
-        <v>1.884957248514349</v>
+        <v>1.515140056610107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.866875</v>
       </c>
       <c r="B6" t="n">
-        <v>1.714719799431887</v>
+        <v>1.378476858139038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9247916666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>1.668052033944563</v>
+        <v>1.276937246322632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9272916666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>1.607757877219807</v>
+        <v>1.189197987318039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.93</v>
       </c>
       <c r="B9" t="n">
-        <v>1.60467989878221</v>
+        <v>1.151378333568573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8127185314685316</v>
+        <v>0.921875</v>
       </c>
       <c r="B10" t="n">
-        <v>1.577392789450559</v>
+        <v>1.124313324689865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9397916666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.538918050852689</v>
+        <v>1.056472539901733</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9314583333333334</v>
       </c>
       <c r="B12" t="n">
-        <v>1.547077010978352</v>
+        <v>1.029597669839859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.936875</v>
       </c>
       <c r="B13" t="n">
-        <v>1.523523796688427</v>
+        <v>1.04572457075119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.9522916666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>1.506710816513408</v>
+        <v>1.01263464987278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>1.498386410149661</v>
+        <v>0.9942330121994019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9320833333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>1.477023785764521</v>
+        <v>0.9684801697731018</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9570833333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>1.476956486701965</v>
+        <v>0.9432704597711563</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9570833333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>1.486902746287259</v>
+        <v>0.9226338267326355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9470833333333334</v>
       </c>
       <c r="B19" t="n">
-        <v>1.449044633995403</v>
+        <v>0.92547807097435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B20" t="n">
-        <v>1.459388039328835</v>
+        <v>0.9190719276666641</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.448614922436801</v>
+        <v>0.9221107214689255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9497916666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>1.443578530441631</v>
+        <v>0.8894164115190506</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9545833333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.439462309533899</v>
+        <v>0.9040980041027069</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9570833333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>1.433447556062178</v>
+        <v>0.8933897465467453</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>1.427594829689373</v>
+        <v>0.880661278963089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>1.437485749071295</v>
+        <v>0.8844421654939651</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1.440157473087311</v>
+        <v>0.8747206479310989</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.95</v>
       </c>
       <c r="B28" t="n">
-        <v>1.424199819564819</v>
+        <v>0.8542845249176025</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9675</v>
       </c>
       <c r="B29" t="n">
-        <v>1.428059588779103</v>
+        <v>0.8485449403524399</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1.431076700037176</v>
+        <v>0.8479295521974564</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.965</v>
       </c>
       <c r="B31" t="n">
-        <v>1.433859705924988</v>
+        <v>0.8608565926551819</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B32" t="n">
-        <v>1.438280891288411</v>
+        <v>0.8482934981584549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.429266880859028</v>
+        <v>0.8329129219055176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>1.426329260522669</v>
+        <v>0.8385490924119949</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B35" t="n">
-        <v>1.419742465019226</v>
+        <v>0.8153969347476959</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9675</v>
       </c>
       <c r="B36" t="n">
-        <v>1.433904935013164</v>
+        <v>0.8245245218276978</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.97</v>
       </c>
       <c r="B37" t="n">
-        <v>1.457627518610521</v>
+        <v>0.8121760636568069</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1.480636314912276</v>
+        <v>0.8125631958246231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.9575</v>
       </c>
       <c r="B39" t="n">
-        <v>1.456271529197693</v>
+        <v>0.8260150998830795</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>1.428337731144645</v>
+        <v>0.8610042929649353</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.955</v>
       </c>
       <c r="B41" t="n">
-        <v>1.415304893797094</v>
+        <v>0.8163434863090515</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>1.422321314161474</v>
+        <v>0.806739941239357</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="B43" t="n">
-        <v>1.419120864434676</v>
+        <v>0.8034539520740509</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9575</v>
       </c>
       <c r="B44" t="n">
-        <v>1.422188487919894</v>
+        <v>0.7921252697706223</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9675</v>
       </c>
       <c r="B45" t="n">
-        <v>1.419604821638627</v>
+        <v>0.7879265993833542</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9675</v>
       </c>
       <c r="B46" t="n">
-        <v>1.409435391426086</v>
+        <v>0.8418117314577103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>1.425172112204812</v>
+        <v>0.8073016852140427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="B48" t="n">
-        <v>1.409535982392051</v>
+        <v>0.7925564497709274</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>1.409859175031835</v>
+        <v>0.793410524725914</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9522916666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>1.412753088907762</v>
+        <v>0.7879451662302017</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>1.410791754722595</v>
+        <v>0.8061511367559433</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9597916666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>1.413766254078258</v>
+        <v>0.8079743832349777</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.9445833333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>1.40884758125652</v>
+        <v>0.7754961550235748</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B54" t="n">
-        <v>1.408110206777399</v>
+        <v>0.7833311706781387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>1.404240218075839</v>
+        <v>0.7804975062608719</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B56" t="n">
-        <v>1.406991308385676</v>
+        <v>0.7765232473611832</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>1.40765687010505</v>
+        <v>0.7759838253259659</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B58" t="n">
-        <v>1.405349894003435</v>
+        <v>0.7714355140924454</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9570833333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.405792100863023</v>
+        <v>0.7780555784702301</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>1.405828784812581</v>
+        <v>0.7675685733556747</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>1.402510431679812</v>
+        <v>0.8041667938232422</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9775</v>
       </c>
       <c r="B62" t="n">
-        <v>1.408863864161751</v>
+        <v>0.7732640206813812</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>1.405085238543424</v>
+        <v>0.7821407318115234</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>1.40720671415329</v>
+        <v>0.7798874825239182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B65" t="n">
-        <v>1.4031597700986</v>
+        <v>0.7711460143327713</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.401759413155642</v>
+        <v>0.7722853124141693</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B67" t="n">
-        <v>1.401284830136733</v>
+        <v>0.7736973166465759</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B68" t="n">
-        <v>1.403759474104101</v>
+        <v>0.7723677754402161</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B69" t="n">
-        <v>1.399728834629059</v>
+        <v>0.7735456079244614</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>1.398867189884186</v>
+        <v>0.7683340758085251</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.96</v>
       </c>
       <c r="B71" t="n">
-        <v>1.423569950190458</v>
+        <v>0.7633118629455566</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.400659344413064</v>
+        <v>0.7648593336343765</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>1.39938745173541</v>
+        <v>0.7730349153280258</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B74" t="n">
-        <v>1.40174290266904</v>
+        <v>0.7828526794910431</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B75" t="n">
-        <v>1.406444002281536</v>
+        <v>0.7672151327133179</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.403415642001412</v>
+        <v>0.7694503515958786</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>1.400867277925665</v>
+        <v>0.7556982040405273</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B78" t="n">
-        <v>1.402011947198348</v>
+        <v>0.7738308310508728</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9570833333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>1.402174321087924</v>
+        <v>0.7518288195133209</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B80" t="n">
-        <v>1.403111902150241</v>
+        <v>0.7625195980072021</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>1.397984060374173</v>
+        <v>0.7685646116733551</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>1.403150991960005</v>
+        <v>0.7545840889215469</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B83" t="n">
-        <v>1.399901563471014</v>
+        <v>0.7531163096427917</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B84" t="n">
-        <v>1.40029239654541</v>
+        <v>0.7490707486867905</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B85" t="n">
-        <v>1.397429558363828</v>
+        <v>0.7562020421028137</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B86" t="n">
-        <v>1.400249762968584</v>
+        <v>0.7493056356906891</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B87" t="n">
-        <v>1.401085674762726</v>
+        <v>0.7679828554391861</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.411806496706876</v>
+        <v>0.7543301433324814</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401845233006911</v>
+        <v>0.7678163051605225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B90" t="n">
-        <v>1.396322001110424</v>
+        <v>0.7656628638505936</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401078608903018</v>
+        <v>0.7537680864334106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.402682477777655</v>
+        <v>0.7527008801698685</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B93" t="n">
-        <v>1.405059538104317</v>
+        <v>0.7481099963188171</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B94" t="n">
-        <v>1.397904629057104</v>
+        <v>0.7553368955850601</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>1.396821016615087</v>
+        <v>0.7427914291620255</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B96" t="n">
-        <v>1.397484876892783</v>
+        <v>0.7452010214328766</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8304195804195804</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.397561246698553</v>
+        <v>0.7438849657773972</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B98" t="n">
-        <v>1.399637265638872</v>
+        <v>0.7497376948595047</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.407553938302127</v>
+        <v>0.7463793456554413</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B100" t="n">
-        <v>1.397602764042941</v>
+        <v>0.75491863489151</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B101" t="n">
-        <v>1.405146452513608</v>
+        <v>0.7393907308578491</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7416568994522095</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7418479323387146</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7448481917381287</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7494754046201706</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7396227121353149</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7391608357429504</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7690477520227432</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7446367889642715</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7406798452138901</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.743485614657402</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7504031211137772</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7396579682826996</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7342008799314499</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7476992309093475</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7467350959777832</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7363555431365967</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7323872745037079</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7456888854503632</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7405095249414444</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7373436987400055</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7363513112068176</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7372919321060181</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7408953607082367</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7482151836156845</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7404412478208542</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7314186096191406</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7400834262371063</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7436475604772568</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7477108985185623</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7364869117736816</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7369005978107452</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7292841970920563</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7363697588443756</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7371486574411392</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7345746010541916</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.753541886806488</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7422829419374466</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7310613691806793</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7423318326473236</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7352430671453476</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7369311898946762</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7353367209434509</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7428354471921921</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7258443981409073</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7427835613489151</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7351707965135574</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7269833087921143</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7408303022384644</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.730455607175827</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.729158028960228</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7306936085224152</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7475081533193588</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9622916666666667</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7242942899465561</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7317888885736465</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7310319840908051</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7257136404514313</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7363846898078918</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7430813163518906</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7377909868955612</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7258766144514084</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7287077456712723</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7401521652936935</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7322116494178772</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.733556404709816</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7414635866880417</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.725799947977066</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7282499819993973</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7290280610322952</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7385218888521194</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7336215376853943</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7219410687685013</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7270513623952866</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7293777763843536</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7262558490037918</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7226292192935944</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7338401079177856</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7329232841730118</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7268618196249008</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7274530529975891</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7359741777181625</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7240085452795029</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7270166724920273</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7322055846452713</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7247507125139236</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7228979468345642</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7232352197170258</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7350409328937531</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.728456050157547</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7337514609098434</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7183024436235428</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7212280184030533</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7224238216876984</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7291453927755356</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7250851094722748</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7238605469465256</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7222592979669571</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7290217280387878</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9545833333333333</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7200709283351898</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7217278182506561</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7188077419996262</v>
       </c>
     </row>
   </sheetData>
